--- a/0_Configuration/Foundation/Small_Dummy_survey_data.xlsx
+++ b/0_Configuration/Foundation/Small_Dummy_survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uijte\Desktop\Earthy\Earthy4.2\0_Configuration\Foundation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91833E82-28C2-4048-B6C4-66D9431C7963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F1B44F-A25D-48B6-B237-CEFC1BD77CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{37948527-6134-4B0F-9F98-E9BA84340B21}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="16">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>23</v>
@@ -1012,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="12">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>25</v>
@@ -1252,7 +1252,7 @@
         <v>7</v>
       </c>
       <c r="I21" s="13">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>33</v>
@@ -1305,8 +1305,8 @@
       <c r="F23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>12</v>
+      <c r="G23" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="H23" s="12">
         <v>7</v>
@@ -1336,7 +1336,7 @@
         <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H24" s="15">
         <v>7</v>
@@ -1365,8 +1365,8 @@
       <c r="F25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>12</v>
+      <c r="G25" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="H25" s="12">
         <v>7</v>
@@ -1396,13 +1396,13 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H26" s="15">
         <v>7</v>
       </c>
       <c r="I26" s="16">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>38</v>
@@ -1612,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="I33" s="13">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J33" s="18" t="s">
         <v>45</v>
